--- a/assignment1_week0.xlsx
+++ b/assignment1_week0.xlsx
@@ -8,14 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sp/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553C135B-7784-964D-B0B3-203939CED7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B279D3E1-13C3-BB46-9A8F-7B32019CD0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="1040" windowWidth="21020" windowHeight="20500" xr2:uid="{CC5EDDDE-0237-E143-A628-26E7273A1E89}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="20800" activeTab="1" xr2:uid="{CC5EDDDE-0237-E143-A628-26E7273A1E89}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$B$12:$B$18</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Data!$A$12:$A$18</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Data!$B$12:$B$18</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Data!$A$12:$A$18</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Data!$B$12:$B$18</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">Data!$A$12:$A$18</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">Data!$B$12:$B$18</definedName>
+    <definedName name="_xlchart.v5.4" hidden="1">Data!$A$4:$A$9</definedName>
+    <definedName name="_xlchart.v5.5" hidden="1">Data!$B$4:$B$9</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Budget Tracker</t>
   </si>
@@ -48,9 +60,6 @@
   </si>
   <si>
     <t>Salary:</t>
-  </si>
-  <si>
-    <t>Tax</t>
   </si>
   <si>
     <t>Super</t>
@@ -91,6 +100,15 @@
   <si>
     <t>%Saving</t>
   </si>
+  <si>
+    <t>Tax(20%)</t>
+  </si>
+  <si>
+    <t>% Expense</t>
+  </si>
+  <si>
+    <t>Yearly Budget Tracking</t>
+  </si>
 </sst>
 </file>
 
@@ -98,9 +116,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -147,6 +165,19 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="5"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -205,45 +236,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEA6159"/>
       <color rgb="FFE05A4D"/>
-      <color rgb="FFEA6159"/>
     </mruColors>
   </colors>
   <extLst>
@@ -255,6 +291,2403 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5BF8-2C4B-AC77-5028721B4A97}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5BF8-2C4B-AC77-5028721B4A97}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17948724461551488"/>
+                  <c:y val="-0.13451086956521738"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="EA6159"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{4748C978-656B-1549-AFFD-CF1C93B8456C}" type="VALUE">
+                      <a:rPr lang="en-US" sz="2800">
+                        <a:solidFill>
+                          <a:srgbClr val="EA6159"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr>
+                        <a:defRPr>
+                          <a:solidFill>
+                            <a:srgbClr val="EA6159"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="EA6159"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.11739447581459264"/>
+                      <c:h val="0.12767673741869223"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5BF8-2C4B-AC77-5028721B4A97}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$A$22:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>%Saving</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>% Expense</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$B$22:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.31911764705882351</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68088235294117649</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5BF8-2C4B-AC77-5028721B4A97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v5.4</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v5.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Income Breakdown</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>Income Breakdown</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="waterfall" uniqueId="{D966DFE5-FC5D-1847-9265-48C3FD8AB14C}">
+          <cx:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </cx:spPr>
+          <cx:dataLabels pos="outEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility connectorLines="0"/>
+            <cx:subtotals>
+              <cx:idx val="0"/>
+              <cx:idx val="5"/>
+            </cx:subtotals>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+  <cx:fmtOvrs>
+    <cx:fmtOvr idx="1">
+      <cx:spPr>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </cx:spPr>
+    </cx:fmtOvr>
+    <cx:fmtOvr idx="2">
+      <cx:spPr>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </cx:spPr>
+    </cx:fmtOvr>
+    <cx:fmtOvr idx="0">
+      <cx:spPr>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </cx:spPr>
+    </cx:fmtOvr>
+  </cx:fmtOvrs>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v2.6</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v2.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Expense Breakdown</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>Expense Breakdown</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="funnel" uniqueId="{F6A8FDFA-7B87-D848-A476-53FD3ABF71F7}">
+          <cx:spPr>
+            <a:blipFill>
+              <a:blip r:embed="rId1">
+                <a:extLst>
+                  <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                    <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                  </a:ext>
+                </a:extLst>
+              </a:blip>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </a:blipFill>
+          </cx:spPr>
+          <cx:dataPt idx="0"/>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.0599999987"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="395">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="419">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>233564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>875862</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" Requires="cx4">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A5C144C-E166-F447-B609-C60B865CDE78}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="88900" y="2364828"/>
+              <a:ext cx="9939721" cy="8049683"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1649540</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>136489</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>454719</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63968</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" Requires="cx2">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7F6F886-7C7E-9F43-89B2-8BD3A5A13326}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10802299" y="2267753"/>
+              <a:ext cx="7315638" cy="8817479"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>525517</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>14598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>714047</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>192106</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F25BC645-1577-5647-B2FA-1EE6737D56E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -574,43 +3007,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE33A3CC-0CBA-7747-AF5A-4B95B58576A4}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="3" spans="1:4" ht="22" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="12">
         <v>90000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>4</v>
+      <c r="A5" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="13">
         <f>-0.2*B4</f>
@@ -618,7 +3049,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="14">
@@ -626,120 +3057,164 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>5</v>
+      <c r="A7" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B7" s="14">
         <v>-10000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>6</v>
+      <c r="A8" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B8" s="14">
-        <v>120000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="16">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15">
         <f>SUM(B4:B8)</f>
-        <v>176000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
+        <v>68000</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="22" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="8"/>
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <v>36000</v>
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="17">
+        <f>SUM(B13:B18)</f>
+        <v>46300</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D13" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="16">
+        <v>36000</v>
+      </c>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2000</v>
+        <v>10</v>
+      </c>
+      <c r="B14" s="16">
+        <v>4000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4000</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="16">
+        <v>2300</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2">
-        <v>1000</v>
+      <c r="B16" s="16">
+        <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2000</v>
+        <v>9</v>
+      </c>
+      <c r="B17" s="16">
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4">
-        <f>SUM(B12:B17)</f>
-        <v>46000</v>
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="16">
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="17">
-        <f>B9-B18</f>
-        <v>130000</v>
+      <c r="A21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="18">
+        <f>B9-B12</f>
+        <v>21700</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="18">
+      <c r="A22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7">
         <f>B21/B9</f>
-        <v>0.73863636363636365</v>
+        <v>0.31911764705882351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="19">
+        <f>100%-B22</f>
+        <v>0.68088235294117649</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B12:B18" xr:uid="{EE33A3CC-0CBA-7747-AF5A-4B95B58576A4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:B18">
+    <sortCondition descending="1" ref="B12:B18"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6559FC-BF2A-684F-92F8-3AD807C2CEDE}">
+  <dimension ref="J2:O2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="11" width="10.83203125" style="10"/>
+    <col min="12" max="12" width="35.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.83203125" style="10"/>
+    <col min="16" max="16" width="0" style="10" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="10:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>